--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11426\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2AB179-1430-43E7-9390-CDD17C721804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049C1EB-D270-4CBB-B988-852AB00FCCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="140" windowWidth="22060" windowHeight="14810" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="470" windowWidth="19810" windowHeight="14810" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="派系s" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>村庄</t>
   </si>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随后，亡灵法师申请在此暂住，但帕辛村长表示自己非常厌恶亡灵法师，只是因为对方救了村庄，因此允许暂住3天，在这之后必须离开。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>在这3天中，马琳·拉瓦纳尔成为这名亡灵法师的学徒，在另一次兽人袭击中用活化死尸配合帕辛守军挡下了攻击，但马琳也因此被帕辛驱逐，只好追随教学自己的亡灵法师。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1205,6 +1201,201 @@
         <charset val="134"/>
       </rPr>
       <t>：负责采集食物，或是与森林外村镇进行交易的小队，装备有强大负重能力的野兽。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马琳·拉瓦纳尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外貌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个性特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：我已从过往中转变，而我努力在自己的新道路上过上好日子。我总是会去帮助遇到麻烦的人，没有什么能动摇我的乐观态度。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：一般人看到恶魔时会尖叫着逃跑，而我则会停下来对它作解剖和记录。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羁绊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：我劳作于这片土地，我热爱这片土地，而且我将保卫这片土地，同时，我还欠那位传授我魔法知识的老师一条命。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：这边土地上不应该再有战争，不再需要被迫使用亡灵法术来对抗入侵者。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后，亡灵法师申请在此暂住，但帕辛村长表示自己非常厌恶亡灵法师，只是因为对方救了村庄，因此允许暂住3天，在这之后必须离开。考虑到村庄民兵恢复，并且亡灵法师并不希望该村庄被毁灭，因此没有提出异议。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：马琳偏爱鬼魂，随身携带有一位</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幽影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>马琳·拉瓦纳尔的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性特质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想：知识是通往权力与统治的捷径，巫妖之书，我必须夺得它。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点：揭示一项远古奥秘值得以一整个文明作代价。一旦我选择了一个目标，就会变得执迷于它以至于因此损害自己生命中的所有其它事物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：马琳对老师来说只是一个用来获取巫妖之书的帮手，一但巫妖之书到手，知晓他秘密的马琳就必须被处死</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1261,7 +1452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1364,11 +1555,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1397,6 +1625,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1404,12 +1656,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,43 +1670,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1780,7 +2026,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="14.5"/>
@@ -1919,197 +2165,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E7C14-BAB1-4A56-AABE-6B40AAAF815D}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="6" width="8.6640625" style="3"/>
+    <col min="7" max="12" width="8.6640625" style="4"/>
+    <col min="13" max="16384" width="8.6640625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="G2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A5" t="s">
+      <c r="B4" s="31"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="G6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="9" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="13"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="13"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="G23" s="28"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="G24" s="28"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A16:F18"/>
-    <mergeCell ref="A19:F21"/>
+  <mergeCells count="20">
+    <mergeCell ref="A20:F22"/>
+    <mergeCell ref="A16:F19"/>
+    <mergeCell ref="G22:L25"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M2:R5"/>
+    <mergeCell ref="M6:R9"/>
+    <mergeCell ref="M10:R12"/>
+    <mergeCell ref="M13:R15"/>
+    <mergeCell ref="M16:R18"/>
+    <mergeCell ref="M19:R21"/>
+    <mergeCell ref="M22:R25"/>
     <mergeCell ref="A7:F11"/>
     <mergeCell ref="A13:F15"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:L5"/>
+    <mergeCell ref="G6:L9"/>
+    <mergeCell ref="G10:L12"/>
+    <mergeCell ref="G16:L18"/>
+    <mergeCell ref="G19:L21"/>
+    <mergeCell ref="G13:L15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,7 +2718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478251B5-F784-47F5-B342-BFE1B2D61822}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -2133,749 +2731,749 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="G2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="28"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="31"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="23" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="28"/>
-    </row>
-    <row r="13" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="23" t="s">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="17"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="18" t="s">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="23" t="s">
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="25"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="23" t="s">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="25"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="26" t="s">
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="17"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="28"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="31"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="25"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="14"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="28"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="14"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="5" t="s">
@@ -2890,362 +3488,346 @@
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="31"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="23" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="13"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="14"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A40" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="14"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="17"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="28"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="26" t="s">
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="G52" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.5" customHeight="1">
+      <c r="G55" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="G56" s="21"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="G57" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="28"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A40" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="28"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A41" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="31"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A44" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A47" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="G52" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" ht="14.5" customHeight="1">
-      <c r="G55" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="G56" s="15"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="G57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="12"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="17"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="M37:R38"/>
-    <mergeCell ref="M39:R41"/>
-    <mergeCell ref="G55:L56"/>
-    <mergeCell ref="G57:L58"/>
-    <mergeCell ref="M23:R25"/>
-    <mergeCell ref="M26:R28"/>
-    <mergeCell ref="M29:R32"/>
-    <mergeCell ref="M33:R36"/>
-    <mergeCell ref="M2:R5"/>
-    <mergeCell ref="M6:R10"/>
-    <mergeCell ref="M11:R14"/>
-    <mergeCell ref="M15:R22"/>
-    <mergeCell ref="G39:L43"/>
-    <mergeCell ref="G45:L48"/>
-    <mergeCell ref="G49:L51"/>
-    <mergeCell ref="G52:L54"/>
     <mergeCell ref="A47:F50"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
@@ -3261,16 +3843,32 @@
     <mergeCell ref="A12:F19"/>
     <mergeCell ref="A28:F31"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="M2:R5"/>
+    <mergeCell ref="M6:R10"/>
+    <mergeCell ref="M11:R14"/>
+    <mergeCell ref="M15:R22"/>
+    <mergeCell ref="G39:L43"/>
     <mergeCell ref="G2:L6"/>
     <mergeCell ref="G8:L11"/>
     <mergeCell ref="G12:L14"/>
     <mergeCell ref="G15:L19"/>
-    <mergeCell ref="A46:F46"/>
     <mergeCell ref="G30:L33"/>
     <mergeCell ref="G34:L37"/>
     <mergeCell ref="G20:L22"/>
     <mergeCell ref="G23:L25"/>
     <mergeCell ref="G26:L29"/>
+    <mergeCell ref="M37:R38"/>
+    <mergeCell ref="M39:R41"/>
+    <mergeCell ref="G55:L56"/>
+    <mergeCell ref="G57:L58"/>
+    <mergeCell ref="M23:R25"/>
+    <mergeCell ref="M26:R28"/>
+    <mergeCell ref="M29:R32"/>
+    <mergeCell ref="M33:R36"/>
+    <mergeCell ref="G45:L48"/>
+    <mergeCell ref="G49:L51"/>
+    <mergeCell ref="G52:L54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11426\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049C1EB-D270-4CBB-B988-852AB00FCCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C336FF8-E5FA-483F-966A-1F68D0FF93AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="470" windowWidth="19810" windowHeight="14810" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="派系s" sheetId="1" r:id="rId1"/>
-    <sheet name="死灵法师" sheetId="3" r:id="rId2"/>
-    <sheet name="森林精灵" sheetId="2" r:id="rId3"/>
+    <sheet name="地精兵团" sheetId="4" r:id="rId2"/>
+    <sheet name="死灵法师" sheetId="3" r:id="rId3"/>
+    <sheet name="森林精灵" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="156">
   <si>
     <t>村庄</t>
   </si>
@@ -67,62 +68,9 @@
     <t>帕辛村是一个和平安宁的村庄，各种族在这里生活，不过近期村庄遭到了袭击</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兽人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地精</t>
-    </r>
-  </si>
-  <si>
-    <t>兽人</t>
-  </si>
-  <si>
-    <t>地精</t>
-  </si>
-  <si>
-    <t>劫掠部落最近盯上了帕辛附近的贸易，并对一些魔法物品感兴趣</t>
-  </si>
-  <si>
     <t>死灵法师</t>
   </si>
   <si>
-    <t>地精军团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>和平的森林精灵部落，对外界事情并不关心，不过一件魔法物品似乎让地精军团对此有所关注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1397,6 +1345,707 @@
       </rPr>
       <t>：马琳对老师来说只是一个用来获取巫妖之书的帮手，一但巫妖之书到手，知晓他秘密的马琳就必须被处死</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~大地精军阀：言行领袖-铁脑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~地精-苦工大队：滞留在总部大寨，为前方阵地源源不断的生产军备，在攻袭矿坑等重要生产基地后，可能会部分转移至新基地从事生产。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~地精-神风大队：将炸药嵌入体内的地精敢死队，配备了狼坐骑，可以快速突入敌军阵地进行自杀式爆破。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25~地精-炮兵大队：配备了不稳定但射速快的燧发枪，齐射时声势骇人。并且可以使用重火力-铁吼炮超远程打击敌阵，通常有10只地精长期作为炮兵进行训练。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~地精~工兵大队：擅长埋设地雷、挖掘陷阱，常用臭气弹扰乱敌阵，同时负责营地建设。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~地精~驯兽大队：负责统管畜栏、兽坑、鸦巢，为兵团提供鼠鼠间谍、侦察鸦群，座狼坐骑，多头蛇蜥等辅助单位。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~大地精~总部大寨：大寨总管~1（长官），火药坊~1，锻造坑~1，奴隶营~1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~大地精~行军大寨：将军副官~2（长官），地精小屋~1，总外交官~1，图书馆~1，驯兽大师~1，大司祭~1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9~熊地精~特战队：3个一组，分别设置为暴徒特战队，盾卫特战队，杀手特战队。因为数量稀少，熊地精们的特殊天赋往往跟不上首领的期望，但他们强劲的体魄和火器又在一部分上弥补了缺陷。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何技术够熟练或运气够好能通过地精部落的领土而不被发现的人将很容易发现一些生活的痕迹——有地精在工作，其它的地精在保护它们。部落的熔炼炉和锻造工坊就会在这一带,同时还会有成堆的砍好的木材和趁手的工具。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下的矿产已经耗尽，现在只作为仓库使用。不过，巢穴中的任何隧道，无论是否是被地精挖出来的，都有可能设置了陷阱，这些陷阱通常不仅能伤害敌人，还有可能让隧道坍塌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奴隶营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置在矿井内部，地精们后期开掘了许多极大的半开放空房间，曾经是地精们驯养狼的地方，这这里，那些动物可以随意的来去，除非地精们要用它们做什么事。不过现在，这里被用来限制奴隶和被驯服的怪物的活动，这样更容易看守和拷打。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火药坊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻造坑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则建立在矿坑外的棚屋群内，大地精们狠狠的压榨着地精们的劳动力，四处流淌着工业废料和地精的排泄物。收缴来的装备也会被运送到这里重新加工。因为长期劳作的缘故，已经有不少地精在工作中过劳死，大地精正在考虑是否使用类人生物奴隶作为苦工来源，</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前哨基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：精巢穴的周围通常会有好几个标志物，这些标志通常并不显眼。与地精结盟的狼群作为有效的守卫保护着领地的外围，不会暴露这附近有一个地精部落的事实。猎手们在高耸的树木和高大的岩石之上建立了岗哨，在那里他们可以在不被看见的情况下观察他们的领土。任何穿过领地的明显道路（一条山谷、清晰的小径或河流）都可能会被变成一处伏击地点，地精们可以在那里捕捉入侵者。这些地方也可能会被布置捕网陷阱，套索陷阱或者隐蔽陷坑，采集者们会定期检查这些陷阱以获得新的奴隶。该地区还包括每个种姓的墓地，墓地总是远离巢穴的。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总部大寨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：一处废弃的矿井，里面有两三个大房间和几个较小的房间，并有隧道连接着它们。在这样的地方，部落可以保护自己最有价值的资产，同时提供一点舒适的生活环境。巢穴只有一个入口，但地精可能会建造一些远离那个位置的逃生隧道。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行军大寨-指挥中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：营地的军阀住在指挥中心里，这里是位于营地中央的一座大型木制建筑。军阀们在这里会见自己的顾问，并制定未来的征服计划。大多数情况下，指挥中心还会有一群精锐熊地精保镖在这里保护着军阀</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熊地精巢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当大地精们划出了他们的领地之后，熊地精帮派们就开始在任何他们中意的地方挖掘他们的巢穴，有些时候巢穴会建立在营地外墙的阴影之下，不过更多的时候巢穴分布的及其散乱，看上去像是随机分布的。一个熊地精巢通常包括一个洞穴和足够几个熊地精经过的低矮通道。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地精小屋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：地精们驻扎在任何他们的大地精指挥要求他们驻扎的地方。他们的住处通常分布在奴隶和野兽的区域周围。典型的地精小屋是一个供居住的地精睡觉的圆形帐篷。在永久性营地里，这些小屋通常会换成用木条和灰泥建造的棚屋。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地精兵营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：毫不意外的，大地精在整个战争行营中拥有最宽敞、设备最完善的营地。军团中的每一个旗都在行营中的某一块区域有着自己的营盘，每一间营房都面对着营中的大路开门。不过现在，因为大地精数量过于稀少，这个建筑只能先由精锐的地精士兵们使用。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图书馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：大地精们知道提高一个人的基础知识的价值，因此他们重视任何关于他们周围世界的资料——地图、会计记录、战斗报告和其他重要的资料。这些知识会由一个军团的图书管理员负责分类，并储存在营地的图书馆里。图书馆是通信和战略决策中心，它绝对不会建在远离领导人的地方。在战场上时，军队的图书馆会被保存在一架加强过的防火四轮马车里，被久经沙场的看护者簇拥着，这些守卫毫不在意为保护它而献出生命。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>畜栏和兽坑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：地精负责照看营地中所有的奴隶，战兽和驮兽。这些家伙被捆住腿，绑在柱子上，或者根据需要关在围栏、笼子或坑里。这些关押点大多被地精小屋环绕着，那些没被包围起来的则会建设在地精住处附近，以方便地精进行追踪式管理。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一支大军很少只包括类地精，尤其是当它已经移动了一段时间之后。除了狼，座狼和成群的乌鸦之外，大军可能还会吸引或强迫更多其他的生物为之服务。一些可能的范例包括：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;一架低矮的两轮手推车，上面放着小小的木笼子，里面装着</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸡蛇兽cockatrices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+&gt;一只</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多头蛇蜥hydra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每个头上都骑着地精，他们通过控制它被罩住的眼睛来引导多头蛇蜥行进
+&gt;之前的奴隶们，通常是曾经与大军作战的士兵，现在他们与大军并肩作战，以获得更好的待遇和保护被俘的亲人。
+&gt;几只地精排成一排骑着的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食腐虫carrion crawler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，由一个地精拿着一个长杆挑着一个灯笼放在它触须刚好够不到的地方来操纵它的移动方向。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸦巢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：大地精饲养渡鸦作为信使和间谍。一个巨大的，树状的金属和木材的复合体为渡鸦们提供了栖息和筑巢的地方。如果有营地不打算专门为渡鸦搭建独立的鸦巢结构，他们的渡鸦就会在指挥中心外面的高处和凸出的岩石上筑巢。当在战场上时，会有一辆马车充当临时的鸦巢。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊地精们作为间谍、刺客和保镖的重要骨干被纳入大军的功能之中，他们只对军队的高级领袖负责，而不对其他同类负责。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候，他们的大地精领导者会提供改进的装备来增强熊地精的力量，比如用金属头的标枪替代他们的石制标枪，或者用链甲代替通常的兽皮甲，熊地精从不装备远程武器（他们拒绝使用）或者重型盔甲（会影响他们持续作战）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一些熊地精在战斗或诡计方面表现出了特殊的天赋，大地精可能会将他们分成小队，以发挥这些技能的最佳效果。任何时候，熊地精都是类地精军团的重要成员，如果他们中的一些人在战争的不同领域具有特殊天赋(或受过专门训练)，他们的价值就会增加，特别是当他们协同工作时。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补给马车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：军队的成员会希望存放他们自己的战斗装备，不过弹药和替换的装备要放在手上，就像其他不易损坏的补给一样。这些物件并不会被保存在某个建筑里，而是会装在分发到整个营地的马车上，这样一来，所有的交通工具都处于使用状态，号角一吹响就可以随时进行移动。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一辆马车都由至少两名警卫看守，他们负责记录“出库”，并向营地领导人报告库存。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断头台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：马格鲁比耶的圣物是一柄刽子手的处刑斧，而相应的断头台也是神圣的，因其可献上被征服之敌和忤逆纪律的类地精的生命。在临时的营地里，断头台可能就是一大块木头或者放在匆忙堆起的土堆上的石头。而在永久性的驻地里，断头台会靠近指挥中心，设立在一处神圣的平台上。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在断头台附近，会竖立一个放着许多武器的柱子或架子，这些武器代表着类地精诸神，每一个都按照诸神的等级排列。马格鲁比耶的处刑斧总是放在最高处，然后是诺莫格-嘎雅的剑和手斧，拜格瑞耶克的白尖链枷，在最底部，通常在接近地面的位置，是库尔拜耶格的红黄条纹鞭子。值得注意的是，在这个分组中没有熊地精神明的象征。作为替代，几个人头被挂在断头台周围，或者插在削尖的木桩上，人头的眼睑都被割掉，而嘴保持张开。这是用来取悦熊地精的神明，赫鲁格克和格兰库尔二神的，同时也是他们在马格鲁比耶统治下下从属但是又相对独立的状态的体现。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类地精族群从很小的时候就被灌输，除了自己的神之外，所有的神都是渺小的、虚假的存在。他们知道，马格鲁比耶是唯一真正的神，终有一日，k将征服所有的神明，将混乱与绝望带到这个世界。类地精们对敌方神灵的神职人员怀有特殊的仇恨，会在战斗中集火他们，一有机会就亵渎他们的神庙。一个神是善的，恶的还是中立的都不重要。除了马格卢比耶和他的仆人之外，所有的神都是虚假的，必须被毁灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地精兵团-劫掠部落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：天才大地精首领</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研发热武器，苦于资源极度匮乏，铁矿、硫磺、魔法水晶的短缺使其科技停滞，决定掠袭帕辛村。痴迷机械与火药，发明了射程有限但威力巨大的“铁吼炮”，并设计出流水线手工作坊，能批量生产简易火枪、炸药桶。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兵团结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：由大地精军阀铁脑直接控制，下属11只大地精作为其副官与小队指挥官。在原部落营地设置了火药坊、锻造坑、奴隶营。另设行军大寨，以指挥中心为中轴，依次设置了大地精兵营，地精小屋群，熊地精巢，图书馆，畜栏，兽坑，鸦巢，断头台。通常情况下还会有补给马车跟随。如果掠袭的地点有教堂存在，地精兵团还会将其教堂破坏，改造成膜拜马格鲁比的神圣标志。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：作为暴徒的熊地精比起格兰库尔更像赫鲁格克，他们跳入成群的敌人之中，大力挥舞着自己的武器，在敌人的阵型上撕开缺口。
+&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盾卫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当一群暴徒狂暴的攻击结束后，通常会紧接上一个或几个盾卫的冲锋，这些熊地精们装备着带刺的盾牌迈入战场，它们会如同铁犁一般刨开敌人的阵线，将一切拦路之敌拍飞到一边。
+&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：具有潜行天赋的熊地精会被派去刺杀敌人的哨兵，从而为其他人突破敌人的防御扫清道路。杀手们会随身携带许多标枪，这些熊地精会隐藏其身形投掷标枪攻击，也会在近身战斗时挥舞标枪肉搏。他们还会携带绞索以便将受害者的尖叫声扼死在喉咙深处。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：无论他们走到哪里，兽人都掠夺和拾荒，一切都是战利品，而战利品总是值得骄傲。为了尽可能多地把食物和战利品运回部族的巢穴，每个部族都有一辆坚固的战车。碎牙部落就是如此，不过与以往，一群地精找上了门，试图雇佣兽人们作为雇佣兵。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人同盟-碎牙氏族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当部族在迁徙时，兽人战士们被命令在周围的土地上寻找任何挥洒鲜血和为他们的神灵带来荣耀的机会。通常来说，战士们成队轮流工作，当一组返回时，另一组外出掠夺，满载砍下的首级，一袋袋战利品和大堆食物。兽人战士们也充当斥候，带回周围地区的详细信息，以便酋长计划接下来派劫掠者去往哪里。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人军队的所覆盖的范围可以延伸到巢穴周围许多英里，任何在这一地区的精灵、矮人和人类聚居地都会处于危险之中。如果兽人瞄准的目标太大，难以直接攻克，他们就会潜伏在运输道路附近，对旅行者和商队发泄他们的不满。一个部族可以靠这种猎物和战利品生存很长一段时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~部落酋长-碎牙者：双持重斧的狂战士，蔑视地精为脆弱玩具，但垂涎能炸开城墙的火药。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~兽人掠夺者：身披锈蚀板甲，专攻近战冲锋，负责在火枪齐射后收割残敌。索要战利品优先权，常与熊地精爆发斗殴。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~食人魔-破墙者：被地精们用炸药蜂蜜蛋糕收买，背负铁吼炮冲锋，兼任活体攻城锤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~巨魔-无畏者：纯粹路过行军大寨的巨魔，看到大寨内食物很多就留了下来。因为多次误食地精所以被排斥在大寨外，由兽人负责看管。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~兽人祭祀：掌握了部分施法能力的老兽人，分别是茹赛可之爪，约卓斯之掌和约卓斯育疫者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人们相信，任何看似无关紧要的发现和事件——树上的一只熊的爪印，一群乌鸦或者骤起的风，都可能是来自神灵的讯息。如果部族以前遇到过类似的预兆，牧师们就知道如何解读它，但如果一个神迹没有明确的含义，那么牧师们可能需要数小时或数天的冥想来了解它的含义。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个兽人群落都有特定的迷信和认识某些预兆。这些原则因部族而异，通常以部族经历的事件为基础。以下是几个示例：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;如果一个矮人或一个人类在死的时候呼唤他的神灵，你必须在三天里带着尸体的耳朵，以避免任何报应，然后埋葬或焚烧它们。
+&gt;三只乌鸦总是一个吉利的兆头。
+&gt;在你即将睡觉的地方吐痰会带来幸运。
+&gt;穿环的侏儒骨头可以抵御疾病。
+&gt;不要站在石头圈、蘑菇圈或任何其他圆圈里。
+&gt;在战斗前看到流星是不吉利的。为了避免这种厄运，你必须吞下一块石头。
+&gt;精灵耳朵的贡品会带来格鲁姆什的青睐。
+&gt;在长途旅行前，如果你在黎明时分埋下五块石头，你将总能找到返回战争火堆的路。
+&gt;跺脚三次，并发出“格乌什”的声音，能够避免邪恶的魔法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种颜色对所有的兽人都有特别的含义，他们用产生这些颜色的颜料来装点自己的身体、财产和巢穴。赭红被用来代表鲜血，灰白色的灰烬代表死亡，而木炭则代表黑暗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些关于管理兽人在部族中个人地位的不成文的规定一定程度上体现在每个兽人如何在自己及其个人物品上对这些颜色的使用中。比如说，一个部族的首领可能是唯一一个有权在其獠牙上涂上赭红色的兽人，而另一个部族的战士则在他们的衣服上擦上一道道灰痕，以预示他们会从一次劫掠中安全归来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增援部队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴随着战争的继续，可能会有更多的邪恶生物被吸引来同盟，兽人们欣赏任何形式的肉体力量和强大的战斗力。因此，他们可能会时不时接受其他生物加入他们的队伍。已知兽人们和野猪人与双头巨人有联系，这两者都能显著提高部族的杀戮效率。为了足够的食物和战利品的承诺，一只巨魔也可能暂时与一个兽人部族为伴。范例见下：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~兽化人-野猪：野猪人脾气大且粗俗不已。它们在类人形态下体格强壮敦实，毛发则又短又硬。它们会在类人与半人形态下使用拳头，而在野兽与半人形态下，则获得一种毁灭性的攻击方式用獠牙攻击的同时散播诅咒。野猪人恣意地感染其他生物，享受着它们的受害者越是抵抗咒诅，就变得越野蛮凶残的现实。野猪人以小家庭团体的方式住在偏远的森林地区，建起破败的小屋或就地居住于洞穴中。它们对陌生人抱有怀疑，但有时会与兽人结盟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~魔兽人继承人：魔兽人惊人的才智，让兽人们坚信这是兽人女神茹赛可的恩赐。魔兽人跟茹赛可一样偏爱在地底生活，然后频繁到地表狩猎以解决地下食物匮乏的状况。普通兽人崇敬魔兽人的强壮与狡猾，因而孤身的魔兽人常常会带领着一支兽人战斗分队。从酋长的观点来看，在部族内养育一个魔兽人，就是冒着这样的风险：魔兽人是否会在某一天崛起，篡夺酋长的权力。正是由于这种情绪，魔兽人被茹赛可的女祭司们隐藏起来，在酋长的视线之外养育。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用战术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人正面佯攻，地精工兵潜入炸毁粮仓制造恐慌，火枪队收割逃兵。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部矛盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人的不满：地精总让兽人充当炮灰，却独占大部分成果。碎牙者多次威胁要“把铁脑塞进他自己的炮管”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源分配：每攻下一地，地精抢夺矿产与书籍，兽人劫掠粮食与奴隶，熊地精争夺武器，巨魔吃掉俘虏……冲突不断。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹豫：地精的粗糙火药与精灵的古老魔法对抗，兽人酋长在臣服于科技或回归野蛮荣耀间的挣扎，兽人神的女祭司暗中抚养他的竞争对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1596,7 +2245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1621,6 +2270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1649,6 +2301,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1656,6 +2314,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,37 +2334,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1707,6 +2344,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2026,7 +2672,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="14.5"/>
@@ -2061,77 +2707,32 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.15" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.15" customHeight="1"/>
+    <row r="9" spans="1:4" ht="14.15" customHeight="1"/>
+    <row r="10" spans="1:4" ht="14.15" customHeight="1"/>
+    <row r="11" spans="1:4" ht="14.15" customHeight="1"/>
+    <row r="12" spans="1:4" ht="14.15" customHeight="1"/>
+    <row r="13" spans="1:4" ht="14.15" customHeight="1"/>
+    <row r="14" spans="1:4" ht="14.15" customHeight="1"/>
     <row r="15" spans="1:4" ht="14.15" customHeight="1"/>
     <row r="16" spans="1:4" ht="14.15" customHeight="1"/>
     <row r="17" ht="14.15" customHeight="1"/>
@@ -2149,9 +2750,8 @@
     <row r="29" ht="14.15" customHeight="1"/>
     <row r="30" ht="14.15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A5:D7"/>
-    <mergeCell ref="A12:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2164,10 +2764,1996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065FB68D-520D-494E-90D6-43AE511E4BA4}">
+  <dimension ref="A1:L158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="6" width="8.6640625" style="3"/>
+    <col min="7" max="12" width="8.6640625" style="4"/>
+    <col min="13" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A34" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A46" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A50" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A55" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A64" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="26"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="26"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="26"/>
+    </row>
+    <row r="76" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A76" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="26"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
+    </row>
+    <row r="80" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A80" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="26"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="29"/>
+    </row>
+    <row r="85" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A85" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="23"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="26"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="29"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="23"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="29"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+    </row>
+    <row r="138" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A138" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+    </row>
+    <row r="143" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A143" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+    </row>
+    <row r="152" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A152" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="G79:L80"/>
+    <mergeCell ref="G82:L84"/>
+    <mergeCell ref="G85:L87"/>
+    <mergeCell ref="G88:L90"/>
+    <mergeCell ref="G58:L63"/>
+    <mergeCell ref="G64:L70"/>
+    <mergeCell ref="G71:L77"/>
+    <mergeCell ref="A152:F158"/>
+    <mergeCell ref="G2:L5"/>
+    <mergeCell ref="G6:L10"/>
+    <mergeCell ref="G11:L15"/>
+    <mergeCell ref="G17:L19"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="G23:L24"/>
+    <mergeCell ref="G25:L26"/>
+    <mergeCell ref="G27:L28"/>
+    <mergeCell ref="G29:L33"/>
+    <mergeCell ref="A131:F135"/>
+    <mergeCell ref="A136:F137"/>
+    <mergeCell ref="A138:F142"/>
+    <mergeCell ref="A143:F151"/>
+    <mergeCell ref="A110:F113"/>
+    <mergeCell ref="A114:F116"/>
+    <mergeCell ref="A117:F125"/>
+    <mergeCell ref="A126:F130"/>
+    <mergeCell ref="A74:F75"/>
+    <mergeCell ref="A76:F79"/>
+    <mergeCell ref="A80:F84"/>
+    <mergeCell ref="A85:F94"/>
+    <mergeCell ref="A95:F98"/>
+    <mergeCell ref="A99:F102"/>
+    <mergeCell ref="A103:F109"/>
+    <mergeCell ref="A64:F68"/>
+    <mergeCell ref="A69:F73"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:F5"/>
+    <mergeCell ref="A6:F11"/>
+    <mergeCell ref="A55:F63"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="G36:L47"/>
+    <mergeCell ref="G48:L51"/>
+    <mergeCell ref="G52:L56"/>
+    <mergeCell ref="A16:F17"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A20:F22"/>
+    <mergeCell ref="A23:F25"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A42:F45"/>
+    <mergeCell ref="A46:F49"/>
+    <mergeCell ref="A50:F54"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A28:F29"/>
+    <mergeCell ref="A30:F32"/>
+    <mergeCell ref="A34:F37"/>
+    <mergeCell ref="A38:F41"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E7C14-BAB1-4A56-AABE-6B40AAAF815D}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -2180,545 +4766,545 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="12"/>
+      <c r="G2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18" ht="14.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
+      <c r="G6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="14"/>
+      <c r="A7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="14"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="14"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="18" t="s">
+      <c r="A13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="14"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
     </row>
     <row r="16" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="13"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="14"/>
+      <c r="A20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="18" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="G23" s="28"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="14"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="G24" s="28"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="14"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="17"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A20:F22"/>
-    <mergeCell ref="A16:F19"/>
-    <mergeCell ref="G22:L25"/>
+    <mergeCell ref="M16:R18"/>
+    <mergeCell ref="M19:R21"/>
+    <mergeCell ref="M22:R25"/>
+    <mergeCell ref="G16:L18"/>
+    <mergeCell ref="G19:L21"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="M2:R5"/>
     <mergeCell ref="M6:R9"/>
     <mergeCell ref="M10:R12"/>
     <mergeCell ref="M13:R15"/>
-    <mergeCell ref="M16:R18"/>
-    <mergeCell ref="M19:R21"/>
-    <mergeCell ref="M22:R25"/>
+    <mergeCell ref="A20:F22"/>
+    <mergeCell ref="A16:F19"/>
+    <mergeCell ref="G22:L25"/>
+    <mergeCell ref="G1:L1"/>
     <mergeCell ref="A7:F11"/>
     <mergeCell ref="A13:F15"/>
-    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G10:L12"/>
+    <mergeCell ref="G13:L15"/>
     <mergeCell ref="G2:L5"/>
     <mergeCell ref="G6:L9"/>
-    <mergeCell ref="G10:L12"/>
-    <mergeCell ref="G16:L18"/>
-    <mergeCell ref="G19:L21"/>
-    <mergeCell ref="G13:L15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478251B5-F784-47F5-B342-BFE1B2D61822}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -2731,1100 +5317,1100 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="12"/>
+      <c r="G2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="14"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="14"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="14"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="14"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
+      <c r="A11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="14"/>
+      <c r="A12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="14"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="14"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="14"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="14"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="15"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="14"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="15"/>
     </row>
     <row r="20" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="14"/>
+      <c r="A20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="14"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="14"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18"/>
     </row>
     <row r="26" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="14"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="15"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="14"/>
+      <c r="A28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="15"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="14"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="15"/>
     </row>
     <row r="30" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="14"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="15"/>
     </row>
     <row r="31" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="14"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="17"/>
+      <c r="A32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="18"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="14"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="14"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="18"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="14"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="15"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A40" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="15"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="17"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A37" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" s="13"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="14"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="14"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A40" s="27" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="25" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="14"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A41" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="17"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A44" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="24" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="G52" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.5" customHeight="1">
+      <c r="G55" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-    </row>
-    <row r="47" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A47" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="G52" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-    </row>
-    <row r="55" spans="1:12" ht="14.5" customHeight="1">
-      <c r="G55" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="G57" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20"/>
+      <c r="G57" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="23"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11426\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C336FF8-E5FA-483F-966A-1F68D0FF93AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2E10D6-0D32-439E-A271-646FEFC6FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="19810" windowHeight="14810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="派系s" sheetId="1" r:id="rId1"/>
+    <sheet name="帕辛村" sheetId="1" r:id="rId1"/>
     <sheet name="地精兵团" sheetId="4" r:id="rId2"/>
     <sheet name="死灵法师" sheetId="3" r:id="rId3"/>
     <sheet name="森林精灵" sheetId="2" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="168">
   <si>
     <t>村庄</t>
   </si>
@@ -65,9 +65,6 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>帕辛村是一个和平安宁的村庄，各种族在这里生活，不过近期村庄遭到了袭击</t>
-  </si>
-  <si>
     <t>死灵法师</t>
   </si>
   <si>
@@ -330,10 +327,6 @@
   </si>
   <si>
     <t>战士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半精灵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2046,6 +2039,270 @@
   </si>
   <si>
     <t>犹豫：地精的粗糙火药与精灵的古老魔法对抗，兽人酋长在臣服于科技或回归野蛮荣耀间的挣扎，兽人神的女祭司暗中抚养他的竞争对手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕辛村是一个和平安宁的村庄，各种族在这里生活，不过近期村庄遭到了袭击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>铁匠铺-双砧工坊:由两位终身不娶的矮人兄弟</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索拉丁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经营，专注打造结合矮人符文技术与精灵轻量化工艺的武器。工坊地窖藏有从祖辈继承的稀有材料，能锻造出可吸收魔力的特殊金属，但兄弟俩始终隐瞒这一秘密。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>旅馆-鼾声与蘑菇：半身人老板</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波蒂亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（女）在地下室培育发光蘑菇作为照明，提供悬挂式树屋客房。旅馆在夜晚会挥发出淡淡的紫色荧光。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>光辉教堂：信奉洛山达的半精灵牧师</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菲珞西尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（女），幼年时期在精灵森林里住过。只会施展微弱的牧师戏法，不过在接过上一任牧师的班后也开始售卖起圣水与简易的生命药剂作为教堂收入。不是很喜欢精灵。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>诊所-叶脉疗院：使用用共生植物嫁接术治疗重伤的森林侏儒医生</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包迪拿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（男），因为治疗会留下藤蔓状疤痕被精灵讨厌，不过仍然保留着进入雾月林枢的权限。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>荧麦农场：农场主是人类</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰切尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，绝大多数居民工作的地方，种植受地脉影响的变异小麦，磨出的面粉自带微甜味，长期食用可能产生轻度幻觉。同时也会种植一些蔬菜果树等经济类作物掩饰财政来源，实际上的主要出口品荧麦酒和荧麦粉在贵族圈被视为致幻品。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑爪酒馆：与黑爪商队合作经营的小酒馆，负责秘密收购禁忌文物，并出售荧麦酒。因为收入占全村收入的17%，再加上贿赂，民兵队对此睁只眼闭只眼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>瞭望塔：12人民兵队驻扎在这里，把守着村子的交通要道，平时会在塔下的训练场训练。成员包括3名半人马弓箭手、4名龙裔重步兵、2名人类夜巡者及3名矮人爆破手。队长为半兽人</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（女）擅长布置陷阱，用兽骨与藤蔓制成警报器。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商队集市-十字轮盘：村庄中心的十字广场，经常有商队停靠，收购或出售一些货物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>丰收篷车：半身人姐妹</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>茶叶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经营的补给站，出售永不发霉的「石窖面包」和用藤曼汁液保鲜的肉类。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑爪商队：由蒙面人运作的帐篷，高价收购附魔物品与古代遗物，背后疑似与北方王廷有勾结。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>锈轮商队：地精商人</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吱吱克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经营的移动杂货铺，贩卖从遗迹回收的魔法卷轴（概率失效）和毒腺制成的烟雾弹，以及冒险需要的一切！</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>村政府：半精灵村长</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿尔文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，曾经的教堂牧师，在老村长去世后接过了村长的职位。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2277,6 +2534,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2301,42 +2591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2346,13 +2600,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2669,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="14.5"/>
@@ -2680,12 +2937,12 @@
     <col min="1" max="16384" width="10.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.15" customHeight="1">
+    <row r="1" spans="1:6" ht="14.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.15" customHeight="1">
+    <row r="2" spans="1:6" ht="14.15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2693,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.15" customHeight="1">
+    <row r="3" spans="1:6" ht="14.15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2701,57 +2958,299 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.15" customHeight="1">
+    <row r="4" spans="1:6" ht="14.15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.15" customHeight="1">
+    <row r="5" spans="1:6" ht="14.15" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="14.15" customHeight="1">
+    <row r="6" spans="1:6" ht="14.15" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="14.15" customHeight="1">
+    <row r="7" spans="1:6" ht="14.15" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="9" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="10" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="11" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="12" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="13" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="14" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="15" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="16" spans="1:4" ht="14.15" customHeight="1"/>
-    <row r="17" ht="14.15" customHeight="1"/>
-    <row r="18" ht="14.15" customHeight="1"/>
-    <row r="19" ht="14.15" customHeight="1"/>
-    <row r="20" ht="14.15" customHeight="1"/>
-    <row r="21" ht="14.15" customHeight="1"/>
-    <row r="22" ht="14.15" customHeight="1"/>
-    <row r="23" ht="14.15" customHeight="1"/>
-    <row r="24" ht="14.15" customHeight="1"/>
-    <row r="25" ht="14.15" customHeight="1"/>
-    <row r="26" ht="14.15" customHeight="1"/>
-    <row r="27" ht="14.15" customHeight="1"/>
-    <row r="28" ht="14.15" customHeight="1"/>
-    <row r="29" ht="14.15" customHeight="1"/>
-    <row r="30" ht="14.15" customHeight="1"/>
+    <row r="8" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.15" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="13">
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A23:F25"/>
+    <mergeCell ref="A26:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="A14:F16"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A19:F22"/>
     <mergeCell ref="A5:D7"/>
+    <mergeCell ref="A9:F10"/>
+    <mergeCell ref="A11:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2767,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065FB68D-520D-494E-90D6-43AE511E4BA4}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2779,16 +3278,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
@@ -2797,16 +3296,16 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2815,12 +3314,12 @@
       <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -2829,12 +3328,12 @@
       <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -2843,12 +3342,12 @@
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -2857,16 +3356,16 @@
       <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
@@ -2875,12 +3374,12 @@
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -2889,12 +3388,12 @@
       <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -2903,12 +3402,12 @@
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -2917,12 +3416,12 @@
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -2931,14 +3430,14 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -2948,10 +3447,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2961,14 +3460,14 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -2977,14 +3476,14 @@
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -2993,12 +3492,12 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -3007,30 +3506,30 @@
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -3039,14 +3538,14 @@
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -3055,12 +3554,12 @@
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -3069,16 +3568,16 @@
       <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -3087,12 +3586,12 @@
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -3101,12 +3600,12 @@
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -3115,16 +3614,16 @@
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -3133,12 +3632,12 @@
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -3147,14 +3646,14 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -3163,14 +3662,14 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -3179,14 +3678,14 @@
       <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -3195,14 +3694,14 @@
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -3211,14 +3710,14 @@
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -3227,14 +3726,14 @@
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -3243,12 +3742,12 @@
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -3257,12 +3756,12 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -3272,7 +3771,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
@@ -3282,16 +3781,16 @@
       <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A34" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
@@ -3300,12 +3799,12 @@
       <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -3314,14 +3813,14 @@
       <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -3330,12 +3829,12 @@
       <c r="L36" s="20"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
@@ -3344,14 +3843,14 @@
       <c r="L37" s="20"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
@@ -3360,12 +3859,12 @@
       <c r="L38" s="20"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -3374,12 +3873,12 @@
       <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
@@ -3388,12 +3887,12 @@
       <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -3402,14 +3901,14 @@
       <c r="L41" s="20"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -3418,12 +3917,12 @@
       <c r="L42" s="20"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -3432,12 +3931,12 @@
       <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
@@ -3446,12 +3945,12 @@
       <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -3460,14 +3959,14 @@
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A46" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -3476,12 +3975,12 @@
       <c r="L46" s="20"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -3490,14 +3989,14 @@
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -3506,12 +4005,12 @@
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -3520,14 +4019,14 @@
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A50" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="A50" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -3536,12 +4035,12 @@
       <c r="L50" s="20"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -3550,14 +4049,14 @@
       <c r="L51" s="20"/>
     </row>
     <row r="52" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -3566,12 +4065,12 @@
       <c r="L52" s="20"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -3580,12 +4079,12 @@
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -3594,14 +4093,14 @@
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A55" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -3610,12 +4109,12 @@
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -3624,25 +4123,25 @@
       <c r="L56" s="20"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
       <c r="G58" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -3651,12 +4150,12 @@
       <c r="L58" s="20"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -3665,12 +4164,12 @@
       <c r="L59" s="20"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -3679,12 +4178,12 @@
       <c r="L60" s="20"/>
     </row>
     <row r="61" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -3693,12 +4192,12 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -3707,12 +4206,12 @@
       <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
@@ -3721,16 +4220,16 @@
       <c r="L63" s="20"/>
     </row>
     <row r="64" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="A64" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -3739,12 +4238,12 @@
       <c r="L64" s="20"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
@@ -3753,12 +4252,12 @@
       <c r="L65" s="20"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
@@ -3767,12 +4266,12 @@
       <c r="L66" s="20"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
@@ -3781,12 +4280,12 @@
       <c r="L67" s="20"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
@@ -3795,14 +4294,14 @@
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="A69" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
@@ -3811,12 +4310,12 @@
       <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -3825,874 +4324,901 @@
       <c r="L70" s="20"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="21" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="19"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="19"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="19"/>
+    </row>
+    <row r="76" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A76" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="19"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="16"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="23"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="26"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="26"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="19" t="s">
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A80" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="26"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="26"/>
-    </row>
-    <row r="76" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A76" s="19" t="s">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="16"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="13"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="19"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="16"/>
+    </row>
+    <row r="85" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A85" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="13"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="19"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="13"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="19"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="16"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" spans="1:12" ht="14.5" customHeight="1">
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="21"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="21"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="21"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="21"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="21"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="26"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="29"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="23"/>
-    </row>
-    <row r="80" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A80" s="19" t="s">
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="29"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="23"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="26"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="29"/>
-    </row>
-    <row r="85" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A85" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="23"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="26"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="29"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="23"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="26"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="29"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-    </row>
-    <row r="96" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-    </row>
-    <row r="105" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="19"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="19"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="19"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="19" t="s">
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+    </row>
+    <row r="138" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A138" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="19" t="s">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="21"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+    </row>
+    <row r="143" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A143" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-    </row>
-    <row r="138" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A138" s="19" t="s">
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+    </row>
+    <row r="152" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A152" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="19"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-    </row>
-    <row r="143" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A143" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="19"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="19"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-    </row>
-    <row r="152" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A152" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="19"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G79:L80"/>
-    <mergeCell ref="G82:L84"/>
-    <mergeCell ref="G85:L87"/>
-    <mergeCell ref="G88:L90"/>
-    <mergeCell ref="G58:L63"/>
-    <mergeCell ref="G64:L70"/>
-    <mergeCell ref="G71:L77"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A42:F45"/>
+    <mergeCell ref="A46:F49"/>
+    <mergeCell ref="A50:F54"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A28:F29"/>
+    <mergeCell ref="A30:F32"/>
+    <mergeCell ref="A34:F37"/>
+    <mergeCell ref="A38:F41"/>
+    <mergeCell ref="A64:F68"/>
+    <mergeCell ref="A69:F73"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:F5"/>
+    <mergeCell ref="A6:F11"/>
+    <mergeCell ref="A55:F63"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="G36:L47"/>
+    <mergeCell ref="G48:L51"/>
+    <mergeCell ref="G52:L56"/>
+    <mergeCell ref="A16:F17"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A20:F22"/>
+    <mergeCell ref="A23:F25"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A117:F125"/>
+    <mergeCell ref="A126:F130"/>
+    <mergeCell ref="A74:F75"/>
+    <mergeCell ref="A76:F79"/>
+    <mergeCell ref="A80:F84"/>
+    <mergeCell ref="A85:F94"/>
+    <mergeCell ref="A95:F98"/>
+    <mergeCell ref="A99:F102"/>
+    <mergeCell ref="A103:F109"/>
     <mergeCell ref="A152:F158"/>
     <mergeCell ref="G2:L5"/>
     <mergeCell ref="G6:L10"/>
@@ -4709,40 +5235,13 @@
     <mergeCell ref="A143:F151"/>
     <mergeCell ref="A110:F113"/>
     <mergeCell ref="A114:F116"/>
-    <mergeCell ref="A117:F125"/>
-    <mergeCell ref="A126:F130"/>
-    <mergeCell ref="A74:F75"/>
-    <mergeCell ref="A76:F79"/>
-    <mergeCell ref="A80:F84"/>
-    <mergeCell ref="A85:F94"/>
-    <mergeCell ref="A95:F98"/>
-    <mergeCell ref="A99:F102"/>
-    <mergeCell ref="A103:F109"/>
-    <mergeCell ref="A64:F68"/>
-    <mergeCell ref="A69:F73"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:F5"/>
-    <mergeCell ref="A6:F11"/>
-    <mergeCell ref="A55:F63"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="G36:L47"/>
-    <mergeCell ref="G48:L51"/>
-    <mergeCell ref="G52:L56"/>
-    <mergeCell ref="A16:F17"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="A20:F22"/>
-    <mergeCell ref="A23:F25"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="A42:F45"/>
-    <mergeCell ref="A46:F49"/>
-    <mergeCell ref="A50:F54"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A28:F29"/>
-    <mergeCell ref="A30:F32"/>
-    <mergeCell ref="A34:F37"/>
-    <mergeCell ref="A38:F41"/>
+    <mergeCell ref="G79:L80"/>
+    <mergeCell ref="G82:L84"/>
+    <mergeCell ref="G85:L87"/>
+    <mergeCell ref="G88:L90"/>
+    <mergeCell ref="G58:L63"/>
+    <mergeCell ref="G64:L70"/>
+    <mergeCell ref="G71:L77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4766,52 +5265,52 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>79</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
+      <c r="M1" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
+      <c r="M2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -4819,12 +5318,12 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="14"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="15"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
@@ -4837,19 +5336,19 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="15"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" ht="14.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -4857,433 +5356,423 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
+      <c r="M6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="15"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="15"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="14"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="25"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="15"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="13"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="14"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="14"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="15"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="14"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="14"/>
+      <c r="A20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="15"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="14"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="15"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="14"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="15"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M16:R18"/>
-    <mergeCell ref="M19:R21"/>
-    <mergeCell ref="M22:R25"/>
-    <mergeCell ref="G16:L18"/>
-    <mergeCell ref="G19:L21"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M2:R5"/>
-    <mergeCell ref="M6:R9"/>
-    <mergeCell ref="M10:R12"/>
-    <mergeCell ref="M13:R15"/>
     <mergeCell ref="A20:F22"/>
     <mergeCell ref="A16:F19"/>
     <mergeCell ref="G22:L25"/>
@@ -5294,6 +5783,16 @@
     <mergeCell ref="G13:L15"/>
     <mergeCell ref="G2:L5"/>
     <mergeCell ref="G6:L9"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M2:R5"/>
+    <mergeCell ref="M6:R9"/>
+    <mergeCell ref="M10:R12"/>
+    <mergeCell ref="M13:R15"/>
+    <mergeCell ref="M16:R18"/>
+    <mergeCell ref="M19:R21"/>
+    <mergeCell ref="M22:R25"/>
+    <mergeCell ref="G16:L18"/>
+    <mergeCell ref="G19:L21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5304,8 +5803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478251B5-F784-47F5-B342-BFE1B2D61822}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5317,13 +5816,13 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.5" customHeight="1">
@@ -5331,40 +5830,40 @@
         <v>1</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
+      <c r="M2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -5372,12 +5871,12 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="14"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="15"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
@@ -5389,31 +5888,28 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="15"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -5421,12 +5917,12 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -5438,79 +5934,79 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
+      <c r="M6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="M7" s="25"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="15"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="14"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="15"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -5518,700 +6014,700 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="M11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="15"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="15"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13"/>
+      <c r="M15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="14"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="15"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="15"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="14"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="15"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="14"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="15"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="14"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="15"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="14"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="15"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="13"/>
+      <c r="M23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="14"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="15"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
+      <c r="M26" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="24"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="14"/>
+      <c r="M27" s="25"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="15"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="14"/>
+      <c r="M28" s="25"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="15"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="14" t="s">
-        <v>76</v>
+      <c r="M29" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="15"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="14"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="15"/>
+      <c r="R30" s="26"/>
     </row>
     <row r="31" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="14"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="15"/>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="18"/>
+      <c r="A32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="13"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="24"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="14"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="15"/>
+      <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="14"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="25"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="15"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="29"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.5" customHeight="1">
+      <c r="A37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A37" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="13"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="24"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M38" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="M38" s="25"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="15"/>
+      <c r="R38" s="26"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
-      <c r="M39" s="14" t="s">
-        <v>79</v>
+      <c r="M39" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="15"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:18" ht="14.5" customHeight="1">
       <c r="A40" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="D40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
-      <c r="M40" s="14"/>
+      <c r="M40" s="25"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="15"/>
+      <c r="R40" s="26"/>
     </row>
     <row r="41" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A41" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="18"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="29"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -6221,7 +6717,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -6237,7 +6733,7 @@
     </row>
     <row r="44" spans="1:18" ht="14.5" customHeight="1">
       <c r="A44" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -6245,12 +6741,12 @@
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -6258,7 +6754,7 @@
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -6268,13 +6764,13 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -6283,14 +6779,14 @@
       <c r="L46" s="20"/>
     </row>
     <row r="47" spans="1:18" ht="14.5" customHeight="1">
-      <c r="A47" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -6299,12 +6795,12 @@
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -6313,14 +6809,14 @@
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -6329,12 +6825,12 @@
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -6352,7 +6848,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="G52" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -6377,43 +6873,68 @@
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="1:12" ht="14.5" customHeight="1">
-      <c r="G55" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23"/>
+      <c r="G55" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="29"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="G57" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="23"/>
+      <c r="G57" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="29"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="G55:L56"/>
+    <mergeCell ref="G57:L58"/>
+    <mergeCell ref="M23:R25"/>
+    <mergeCell ref="M26:R28"/>
+    <mergeCell ref="M29:R32"/>
+    <mergeCell ref="M33:R36"/>
+    <mergeCell ref="G45:L48"/>
+    <mergeCell ref="G49:L51"/>
+    <mergeCell ref="G52:L54"/>
+    <mergeCell ref="M2:R5"/>
+    <mergeCell ref="M6:R10"/>
+    <mergeCell ref="M11:R14"/>
+    <mergeCell ref="M15:R22"/>
+    <mergeCell ref="G39:L43"/>
+    <mergeCell ref="G2:L6"/>
+    <mergeCell ref="G8:L11"/>
+    <mergeCell ref="G12:L14"/>
+    <mergeCell ref="G15:L19"/>
+    <mergeCell ref="G30:L33"/>
+    <mergeCell ref="G34:L37"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="G23:L25"/>
+    <mergeCell ref="G26:L29"/>
+    <mergeCell ref="M37:R38"/>
+    <mergeCell ref="M39:R41"/>
     <mergeCell ref="A47:F50"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
@@ -6430,31 +6951,6 @@
     <mergeCell ref="A28:F31"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A46:F46"/>
-    <mergeCell ref="M2:R5"/>
-    <mergeCell ref="M6:R10"/>
-    <mergeCell ref="M11:R14"/>
-    <mergeCell ref="M15:R22"/>
-    <mergeCell ref="G39:L43"/>
-    <mergeCell ref="G2:L6"/>
-    <mergeCell ref="G8:L11"/>
-    <mergeCell ref="G12:L14"/>
-    <mergeCell ref="G15:L19"/>
-    <mergeCell ref="G30:L33"/>
-    <mergeCell ref="G34:L37"/>
-    <mergeCell ref="G20:L22"/>
-    <mergeCell ref="G23:L25"/>
-    <mergeCell ref="G26:L29"/>
-    <mergeCell ref="M37:R38"/>
-    <mergeCell ref="M39:R41"/>
-    <mergeCell ref="G55:L56"/>
-    <mergeCell ref="G57:L58"/>
-    <mergeCell ref="M23:R25"/>
-    <mergeCell ref="M26:R28"/>
-    <mergeCell ref="M29:R32"/>
-    <mergeCell ref="M33:R36"/>
-    <mergeCell ref="G45:L48"/>
-    <mergeCell ref="G49:L51"/>
-    <mergeCell ref="G52:L54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11426\Downloads\attack-for-ocr-main (1)\attack-for-ocr-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1C7C2-8BD9-4A42-BEBD-3CD7FB855904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7D2D5-33C0-4A4C-A689-8646794DC801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="160" windowWidth="22670" windowHeight="14810" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2890" yWindow="450" windowWidth="22670" windowHeight="14810" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="帕辛村" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="220">
   <si>
     <t>建筑名</t>
   </si>
@@ -182,31 +182,10 @@
     <t>1~大地精军阀：言行领袖-铁脑</t>
   </si>
   <si>
-    <t>4~大地精~总部大寨：大寨总管~1（长官），火药坊~1，锻造坑~1，奴隶营~1.</t>
-  </si>
-  <si>
-    <t>7~大地精~行军大寨：将军副官~2（长官），地精小屋~1，总外交官~1，图书馆~1，驯兽大师~1，大司祭~1</t>
-  </si>
-  <si>
     <t>1~部落酋长-碎牙者：双持重斧的狂战士，蔑视地精为脆弱玩具，但垂涎能炸开城墙的火药。</t>
   </si>
   <si>
-    <t>15~地精-神风大队：将炸药嵌入体内的地精敢死队，配备了狼坐骑，可以快速突入敌军阵地进行自杀式爆破。</t>
-  </si>
-  <si>
-    <t>40~地精-苦工大队：滞留在总部大寨，为前方阵地源源不断的生产军备，在攻袭矿坑等重要生产基地后，可能会部分转移至新基地从事生产。</t>
-  </si>
-  <si>
-    <t>25~地精-炮兵大队：配备了不稳定但射速快的燧发枪，齐射时声势骇人。并且可以使用重火力-铁吼炮超远程打击敌阵，通常有10只地精长期作为炮兵进行训练。</t>
-  </si>
-  <si>
-    <t>20~地精~工兵大队：擅长埋设地雷、挖掘陷阱，常用臭气弹扰乱敌阵，同时负责营地建设。</t>
-  </si>
-  <si>
     <t>3~兽人祭祀：掌握了部分施法能力的老兽人，分别是茹赛可之爪，约卓斯之掌和约卓斯育疫者</t>
-  </si>
-  <si>
-    <t>20~地精~驯兽大队：负责统管畜栏、兽坑、鸦巢，为兵团提供鼠鼠间谍、侦察鸦群，座狼坐骑，多头蛇蜥等辅助单位。</t>
   </si>
   <si>
     <t>兽人们相信，任何看似无关紧要的发现和事件——树上的一只熊的爪印，一群乌鸦或者骤起的风，都可能是来自神灵的讯息。如果部族以前遇到过类似的预兆，牧师们就知道如何解读它，但如果一个神迹没有明确的含义，那么牧师们可能需要数小时或数天的冥想来了解它的含义。</t>
@@ -301,9 +280,6 @@
     <t>背景</t>
   </si>
   <si>
-    <t>~20</t>
-  </si>
-  <si>
     <t>骷髅</t>
   </si>
   <si>
@@ -983,84 +959,6 @@
         <charset val="134"/>
       </rPr>
       <t>：在需要的情况下，精灵会为角色们提供他们的施法者服务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复活死者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：精灵们能够施展</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>死者复活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复生术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>甚至</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完全复生术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来复活一位虔诚的勇士。</t>
     </r>
   </si>
   <si>
@@ -1867,15 +1765,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20~兽人掠夺者：身披锈蚀板甲，专攻近战冲锋，负责在火枪齐射后收割残敌。索要战利品优先权，常与熊地精爆发斗殴。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1~巨魔-无畏者：纯粹路过行军大寨的巨魔，看到大寨内食物很多就留了下来。因为多次误食地精所以被排斥在大寨外，由兽人负责看管。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~山丘巨人-破墙者：被地精们用炸药蛋糕收买，背负铁吼炮冲锋，兼任活体攻城锤。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1934,6 +1824,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1~山丘巨人-破墙者：被地精们用炸药蛋糕收买，背负铁吼炮冲锋，兼任活体攻城锤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~地精-神风大队：将炸药嵌入体内的地精敢死队，配备了狼坐骑，可以快速突入敌军阵地进行自杀式爆破。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~地精-苦工大队：滞留在总部大寨，为前方阵地源源不断的生产军备，在攻袭矿坑等重要生产基地后，可能会部分转移至新基地从事生产。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~兽人掠夺者：身披锈蚀板甲，专攻近战冲锋，负责在火枪齐射后收割残敌。索要战利品优先权，常与熊地精爆发斗殴。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>耐罗家族</t>
     </r>
@@ -1944,7 +1850,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>：2d4皮克精、或1d4半羊人、或1d4闪现犬，外加1精灵吟游诗人、或1精灵法师</t>
+      <t>：1d4皮克精、或1半羊人、或1闪现犬，外加1精灵吟游诗人、或1精灵法师</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1959,7 +1865,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>：1d4树精、或2d4小妖精，外加1精灵德鲁伊，1树人</t>
+      <t>：1树精、或1d4小妖精，外加1精灵德鲁伊，1树人</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1974,41 +1880,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>：1d6野兽，2d6精灵斥候，1d4精灵神射手</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>妖精龙</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第八封印家族</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：守护巫妖之书的秘密部队</t>
+      <t>：2d4精灵斥候、或1d4精灵神射手，外加1妖精龙，1d6野兽</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2023,7 +1895,103 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>：2d6精灵斥候、或1d4人马，外加3d6覃人，2d4驼鹿</t>
+      <t>：2d4精灵斥候、或1d4人马，外加2d6覃人，1d6驼鹿</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>复活死者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：精灵们能够施展</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死者复活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、或</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复生术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来复活一位勇士。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~地精~驯兽大队：负责统管畜栏、兽坑、鸦巢，为兵团提供鼠鼠间谍、侦察鸦群，座狼坐骑，多头蛇蜥等辅助单位。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14~地精~工兵大队：擅长埋设地雷、挖掘陷阱，常用臭气弹扰乱敌阵，同时负责营地建设。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12~地精-炮兵大队：配备了不稳定但射速快的燧发枪，齐射时声势骇人。并且可以使用重火力-铁吼炮超远程打击敌阵，通常有10只地精长期作为炮兵进行训练。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~大地精~总部大寨：大寨总管~1（长官），火药坊+锻造坑~1，奴隶营~1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~大地精~行军大寨：将军副官~1（长官），总外交官~1，驯兽大师~1，大司祭~1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第八封印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：守护巫妖之书的秘密部队，2至高妖精邪术师，4精灵德鲁伊</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2245,7 +2213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2274,13 +2242,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2292,31 +2266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,6 +2297,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2745,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2755,212 +2717,212 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>166</v>
+      <c r="A2" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33">
-      <c r="A4" s="10" t="s">
-        <v>165</v>
+      <c r="A4" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>164</v>
+      <c r="A8" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5">
       <c r="A12" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.5">
-      <c r="A13" s="10" t="s">
-        <v>168</v>
+      <c r="A13" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="14" spans="1:3" ht="49.5">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="49.5">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="33">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>165</v>
+      <c r="D17" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="33">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="33">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="33">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
@@ -2989,7 +2951,7 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="A20" sqref="A20:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
@@ -3000,173 +2962,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
@@ -3175,68 +3137,68 @@
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="A14" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
@@ -3245,729 +3207,729 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A26" s="11" t="s">
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12" t="s">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="7:12">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="7:12">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="7:12">
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="7:12">
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="7:12">
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="7:12">
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="7:12">
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="7:12">
+      <c r="G44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="7:12">
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="7:12">
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12" t="s">
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="7:12">
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="7:12">
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="7:12">
+      <c r="G53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="11" t="s">
+    </row>
+    <row r="54" spans="7:12">
+      <c r="G54" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="7:12">
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G34" s="12" t="s">
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="7:12">
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="7:12">
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="7:12">
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="7:12">
+      <c r="G60" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="7:12">
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="7:12">
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="7:12" ht="14.25" customHeight="1">
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="7:12">
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="7:12">
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="7:12">
+      <c r="G67" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="7:12">
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="7:12">
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="7:12">
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="7:12">
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="7:12">
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="7:12">
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="7:12">
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="7:12">
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="7:12">
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G48" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="7:12">
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="7:12">
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G52" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="7:12">
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="7:12">
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="7:12">
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="7:12">
-      <c r="G57" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G58" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="7:12">
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="7:12">
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="7:12">
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="7:12">
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G64" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="7:12">
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="7:12">
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="7:12">
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
     </row>
     <row r="68" spans="7:12">
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
     </row>
     <row r="69" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
     </row>
     <row r="70" spans="7:12">
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
     </row>
     <row r="71" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G71" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
     </row>
     <row r="72" spans="7:12">
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
     </row>
     <row r="73" spans="7:12">
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
     </row>
     <row r="74" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
+      <c r="G74" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
     </row>
     <row r="75" spans="7:12">
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
     </row>
     <row r="76" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
+      <c r="G76" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
     </row>
     <row r="77" spans="7:12">
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
     </row>
     <row r="78" spans="7:12">
       <c r="G78" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G79" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
+      <c r="G79" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
     </row>
     <row r="80" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
     </row>
     <row r="81" spans="7:12">
       <c r="G81" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G82" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
+      <c r="G82" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
     </row>
     <row r="83" spans="7:12">
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
     </row>
     <row r="84" spans="7:12">
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
     </row>
     <row r="85" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G85" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
+      <c r="G85" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
     </row>
     <row r="86" spans="7:12">
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
     </row>
     <row r="87" spans="7:12">
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
     </row>
     <row r="88" spans="7:12" ht="14.25" customHeight="1">
-      <c r="G88" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
+      <c r="G88" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
     </row>
     <row r="89" spans="7:12">
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
     </row>
     <row r="90" spans="7:12">
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
     </row>
     <row r="95" spans="7:12" ht="14.25" customHeight="1"/>
     <row r="96" spans="7:12" ht="14.25" customHeight="1"/>
@@ -3985,30 +3947,6 @@
     <row r="152" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G88:L90"/>
-    <mergeCell ref="G64:L70"/>
-    <mergeCell ref="G71:L77"/>
-    <mergeCell ref="G79:L80"/>
-    <mergeCell ref="G82:L84"/>
-    <mergeCell ref="G85:L87"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="G36:L47"/>
-    <mergeCell ref="G48:L51"/>
-    <mergeCell ref="G52:L56"/>
-    <mergeCell ref="G58:L63"/>
-    <mergeCell ref="A23:F25"/>
-    <mergeCell ref="G23:L24"/>
-    <mergeCell ref="G25:L26"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="G27:L28"/>
-    <mergeCell ref="A28:F29"/>
-    <mergeCell ref="G29:L33"/>
-    <mergeCell ref="A30:F32"/>
-    <mergeCell ref="A16:F17"/>
-    <mergeCell ref="G17:L19"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="A20:F22"/>
-    <mergeCell ref="G20:L22"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="A2:F5"/>
@@ -4018,6 +3956,30 @@
     <mergeCell ref="G11:L15"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A16:F17"/>
+    <mergeCell ref="G17:L19"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A20:F22"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="A23:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="G23:L24"/>
+    <mergeCell ref="A28:F29"/>
+    <mergeCell ref="G25:L29"/>
+    <mergeCell ref="A30:F32"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="G32:L43"/>
+    <mergeCell ref="G44:L47"/>
+    <mergeCell ref="G48:L52"/>
+    <mergeCell ref="G54:L59"/>
+    <mergeCell ref="G60:L66"/>
+    <mergeCell ref="G67:L73"/>
+    <mergeCell ref="G74:L75"/>
+    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="G79:L80"/>
+    <mergeCell ref="G82:L84"/>
+    <mergeCell ref="G85:L87"/>
+    <mergeCell ref="G88:L90"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4029,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C141F8-02C3-4C65-9C0B-0F3F3110357A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="14.5"/>
@@ -4041,164 +4003,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="87">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29">
+      <c r="A2" s="17"/>
+      <c r="B2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29">
+      <c r="A3" s="17"/>
+      <c r="B3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58">
+      <c r="A4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29">
+      <c r="A5" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C6" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="188.5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29">
+      <c r="A8" s="17"/>
+      <c r="B8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="29">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5">
+      <c r="A10" s="17"/>
+      <c r="B10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29">
-      <c r="A2" s="15"/>
-      <c r="B2" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="21" t="s">
+    <row r="11" spans="1:3" ht="101.5">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29">
-      <c r="A3" s="15"/>
-      <c r="B3" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="12" spans="1:3" ht="43.5">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="58">
-      <c r="A4" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="21" t="s">
+    <row r="13" spans="1:3" ht="101.5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29">
-      <c r="A5" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29">
-      <c r="A6" s="15"/>
-      <c r="B6" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="188.5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="21" t="s">
+    <row r="14" spans="1:3" ht="72.5">
+      <c r="A14" s="18" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="29">
-      <c r="A9" s="15"/>
-      <c r="B9" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="C14" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="101.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="15" spans="1:3" ht="72.5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="C15" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="101.5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="9" t="s">
+    <row r="16" spans="1:3" ht="43.5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="10" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="72.5">
-      <c r="A14" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72.5">
-      <c r="A15" s="22"/>
-      <c r="B15" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>209</v>
+      <c r="C16" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>210</v>
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4217,7 +4179,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
@@ -4229,513 +4191,531 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="A7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="14" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="11" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G2:L5"/>
+    <mergeCell ref="M2:R5"/>
+    <mergeCell ref="G6:L9"/>
+    <mergeCell ref="M6:R9"/>
+    <mergeCell ref="A7:F11"/>
+    <mergeCell ref="G10:L12"/>
+    <mergeCell ref="M10:R12"/>
+    <mergeCell ref="A13:F15"/>
+    <mergeCell ref="G13:L15"/>
+    <mergeCell ref="M13:R15"/>
     <mergeCell ref="A16:F19"/>
     <mergeCell ref="G16:L18"/>
     <mergeCell ref="M16:R18"/>
@@ -4744,18 +4724,6 @@
     <mergeCell ref="A20:F22"/>
     <mergeCell ref="G22:L25"/>
     <mergeCell ref="M22:R25"/>
-    <mergeCell ref="A7:F11"/>
-    <mergeCell ref="G10:L12"/>
-    <mergeCell ref="M10:R12"/>
-    <mergeCell ref="A13:F15"/>
-    <mergeCell ref="G13:L15"/>
-    <mergeCell ref="M13:R15"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G2:L5"/>
-    <mergeCell ref="M2:R5"/>
-    <mergeCell ref="G6:L9"/>
-    <mergeCell ref="M6:R9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4767,8 +4735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
@@ -4780,1088 +4748,1093 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="13" t="s">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13" t="s">
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="14" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="14" t="s">
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+    </row>
+    <row r="34" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-    </row>
-    <row r="29" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-    </row>
-    <row r="33" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-    </row>
-    <row r="34" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18" ht="14.25" customHeight="1">
       <c r="A36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A40" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-    </row>
-    <row r="39" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A41" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="26"/>
+      <c r="G44" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="1:18" ht="14.25" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
+      <c r="G45" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
+      <c r="A46" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A47" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
+      <c r="A47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="G51" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
+      <c r="G51" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1">
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="G53" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
+      <c r="G53" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:12" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G51:L52"/>
-    <mergeCell ref="G53:L54"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="G45:L46"/>
-    <mergeCell ref="G47:L48"/>
-    <mergeCell ref="G49:L50"/>
+    <mergeCell ref="G2:L6"/>
+    <mergeCell ref="M2:R5"/>
+    <mergeCell ref="M6:R10"/>
+    <mergeCell ref="A7:F9"/>
+    <mergeCell ref="G8:L11"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="M11:R14"/>
+    <mergeCell ref="A12:F19"/>
+    <mergeCell ref="G12:L14"/>
+    <mergeCell ref="G15:L19"/>
+    <mergeCell ref="M15:R22"/>
+    <mergeCell ref="A20:F27"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="G23:L25"/>
+    <mergeCell ref="M23:R25"/>
+    <mergeCell ref="G26:L29"/>
     <mergeCell ref="M26:R28"/>
     <mergeCell ref="A28:F31"/>
     <mergeCell ref="M29:R32"/>
@@ -5878,22 +5851,17 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="A41:F42"/>
     <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G2:L6"/>
-    <mergeCell ref="M2:R5"/>
-    <mergeCell ref="M6:R10"/>
-    <mergeCell ref="A7:F9"/>
-    <mergeCell ref="G8:L11"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="M11:R14"/>
-    <mergeCell ref="A12:F19"/>
-    <mergeCell ref="G12:L14"/>
-    <mergeCell ref="G15:L19"/>
-    <mergeCell ref="M15:R22"/>
-    <mergeCell ref="A20:F27"/>
-    <mergeCell ref="G20:L22"/>
-    <mergeCell ref="G23:L25"/>
-    <mergeCell ref="M23:R25"/>
-    <mergeCell ref="G26:L29"/>
+    <mergeCell ref="G51:L52"/>
+    <mergeCell ref="G53:L54"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="G45:L46"/>
+    <mergeCell ref="G47:L48"/>
+    <mergeCell ref="G49:L50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
